--- a/Data/Types.xlsx
+++ b/Data/Types.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Normal</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>Dark</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
@@ -404,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,147 +423,155 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
     </row>
